--- a/Documentatie/Usecase Admin.xlsx
+++ b/Documentatie/Usecase Admin.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
   <si>
     <t>Kolom1</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Non-functie requirments</t>
-  </si>
-  <si>
-    <t>Moet snel kunnen werken en makkelijk te bedienen zijn.</t>
   </si>
   <si>
     <t>Postconditie</t>
@@ -695,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,13 +747,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -768,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,15 +773,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -804,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -820,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -828,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -852,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -860,15 +857,15 @@
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -888,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -912,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -920,13 +917,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -946,15 +943,15 @@
         <v>9</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -974,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -998,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1006,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,15 +1029,15 @@
         <v>9</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1056,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1072,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1080,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,13 +1085,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,15 +1111,15 @@
         <v>9</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,15 +1193,15 @@
         <v>9</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,15 +1271,15 @@
         <v>9</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1352,15 +1349,15 @@
         <v>9</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,28 +1427,28 @@
         <v>9</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
